--- a/2017-03-一週計畫.xlsx
+++ b/2017-03-一週計畫.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>星期日</t>
   </si>
@@ -61,6 +61,9 @@
     <t>下午</t>
   </si>
   <si>
+    <t>慢跑+練球</t>
+  </si>
+  <si>
     <t>魚罐頭</t>
   </si>
   <si>
@@ -71,9 +74,6 @@
   </si>
   <si>
     <t>系籃練球</t>
-  </si>
-  <si>
-    <t>慢跑+練球</t>
   </si>
 </sst>
 </file>
@@ -99,7 +99,7 @@
       <name val="DFKai-SB"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +128,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7F6000"/>
         <bgColor rgb="FF7F6000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -169,7 +175,7 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
@@ -319,34 +325,36 @@
       <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="8" t="s">
-        <v>20</v>
+      <c r="H5" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -357,7 +365,6 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="11"/>
@@ -380,9 +387,9 @@
       <c r="H8" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4 C4 E3 F5">
+  <conditionalFormatting sqref="E3 B4:C4 H4 F5">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B4))&gt;0</formula>
+      <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>
